--- a/classfiers/chain/multinomialNB/smote/chain-multinomialNB-smote-results.xlsx
+++ b/classfiers/chain/multinomialNB/smote/chain-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9134199134199135</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9172204290867667</v>
+        <v>0.555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9172109360167078</v>
+        <v>0.4451198603447738</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9172204290867667</v>
+        <v>0.5549999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6920289855072463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8519650655021834</v>
+        <v>0.7649999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8514789295367163</v>
+        <v>0.7561987758066189</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8519650655021834</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.759825327510917</v>
+        <v>0.645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7454627949183303</v>
+        <v>0.6337846550612508</v>
       </c>
       <c r="E4" t="n">
-        <v>0.759825327510917</v>
+        <v>0.6449999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6490566037735849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6724890829694323</v>
+        <v>0.6963316582914573</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6335426868213754</v>
+        <v>0.6882107914365979</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6724890829694323</v>
+        <v>0.6963316582914572</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5388235294117647</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5720524017467249</v>
+        <v>0.6673492462311558</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4761071036720592</v>
+        <v>0.6403139551434556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5720524017467249</v>
+        <v>0.6673492462311558</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7104318014287054</v>
+        <v>0.616947276586325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7547104613632049</v>
+        <v>0.6657361809045226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7247604901930378</v>
+        <v>0.6327256075585395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7547104613632049</v>
+        <v>0.6657361809045226</v>
       </c>
     </row>
   </sheetData>
